--- a/data/trans_camb/P23_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,13</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,65</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 16,26</t>
+          <t>-2,79; 17,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 6,0</t>
+          <t>-8,56; 5,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 19,08</t>
+          <t>-4,21; 14,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 10,46</t>
+          <t>-10,44; 4,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 7,78</t>
+          <t>-11,31; 3,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 3,01</t>
+          <t>-0,62; 17,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 12,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 8,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 3,05</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 13,37</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>58,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>157,52%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>-12,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>-20,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>47,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>47,23%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 303,39</t>
+          <t>-25,78; 309,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 118,45</t>
+          <t>-54,09; 86,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,38; 340,1</t>
+          <t>-32,96; 212,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 44,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 36,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 89,23</t>
+          <t>-45,15; 34,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 76,37</t>
+          <t>-49,98; 29,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 30,41</t>
+          <t>-3,65; 142,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,91; 128,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,99; 71,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-42,76; 31,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; 114,12</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -0,12</t>
+          <t>-8,27; 3,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 1,36</t>
+          <t>-8,59; 3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 2,16</t>
+          <t>-9,73; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 6,51</t>
+          <t>-6,68; 4,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 0,7</t>
+          <t>-11,45; -1,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; -0,01</t>
+          <t>-8,56; 3,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 2,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; -0,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 1,72</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,78%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,36%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,92%</t>
+          <t>-26,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,87%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-19,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-13,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 1,25</t>
+          <t>-35,67; 21,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 7,58</t>
+          <t>-36,19; 17,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 11,35</t>
+          <t>-40,14; 17,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 28,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 38,65</t>
+          <t>-27,11; 29,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 3,72</t>
+          <t>-46,31; -5,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 0,44</t>
+          <t>-36,34; 21,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 15,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-23,86; 15,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-36,75; -2,08</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-30,43; 9,64</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-5,17</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -0,05</t>
+          <t>-12,89; -1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 7,33</t>
+          <t>-8,62; 4,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,04</t>
+          <t>-11,43; 1,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 1,42</t>
+          <t>-9,37; 2,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -0,16</t>
+          <t>-10,27; 0,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,39</t>
+          <t>-8,17; 4,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 1,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; -0,96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 0,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 1,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>-37,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>-7,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-25,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>-16,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-20,78%</t>
+          <t>-24,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-7,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-26,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-17,1%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-15,53%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 0,58</t>
+          <t>-57,03; -7,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 55,12</t>
+          <t>-37,3; 28,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 36,08</t>
+          <t>-50,97; 10,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 20,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 3,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 10,35</t>
+          <t>-38,56; 12,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,32; -0,81</t>
+          <t>-41,6; 1,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 14,81</t>
+          <t>-33,02; 25,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 11,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-41,81; -5,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-35,28; 3,88</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-34,19; 9,36</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,72</t>
+          <t>-6,56; 5,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 1,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,15</t>
+          <t>0,53; 13,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,88</t>
+          <t>-6,86; 2,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,4</t>
+          <t>-8,88; 0,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 2,47</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 5,16</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-14,7%</t>
+          <t>-25,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-8,87%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 5,1</t>
+          <t>-36,13; 42,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 9,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 25,62</t>
+          <t>0,84; 105,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 11,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,74; -3,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 23,21</t>
+          <t>-36,13; 20,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -2,35</t>
+          <t>-47,43; 3,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 19,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,8; 18,3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; 36,98</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 1,9</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 2,5</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 4,04</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 1,25</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; -1,03</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 2,62</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 0,66</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; -0,16</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 2,12</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-8,97%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-8,44%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-20,42%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-8,66%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-13,81%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-25,61; 12,33</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-23,18; 16,91</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-13,51; 25,97</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-23,16; 7,51</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-33,26; -6,17</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-18,84; 15,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-19,71; 4,33</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-24,07; -0,78</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 12,71</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
